--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\OfflineWebsiteJBK\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3443EF3E-8376-49FB-9898-C1D97C47E088}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036B747-18B7-4F1F-A8F5-E50316FDF285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,15 @@
     <sheet name="operator" sheetId="11" r:id="rId9"/>
     <sheet name="operatorTable" sheetId="16" r:id="rId10"/>
     <sheet name="dashboard" sheetId="12" r:id="rId11"/>
-    <sheet name="statelist" sheetId="13" r:id="rId12"/>
-    <sheet name="operatorHeader" sheetId="7" r:id="rId13"/>
-    <sheet name="adduser" sheetId="2" r:id="rId14"/>
-    <sheet name="user" sheetId="3" r:id="rId15"/>
-    <sheet name="register" sheetId="4" r:id="rId16"/>
+    <sheet name="courses" sheetId="20" r:id="rId12"/>
+    <sheet name="moreinfo" sheetId="19" r:id="rId13"/>
+    <sheet name="subcourses" sheetId="18" r:id="rId14"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId15"/>
+    <sheet name="statelist" sheetId="13" r:id="rId16"/>
+    <sheet name="operatorHeader" sheetId="7" r:id="rId17"/>
+    <sheet name="adduser" sheetId="2" r:id="rId18"/>
+    <sheet name="user" sheetId="3" r:id="rId19"/>
+    <sheet name="register" sheetId="4" r:id="rId20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
   <si>
     <t>Username</t>
   </si>
@@ -641,9 +645,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,6 +660,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,122 +1009,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="38" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <v>9552343698</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>7066885937</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>8888558802</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>8888809416</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="40" t="s">
+      <c r="D6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>8866888662</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1134,7 +1138,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:C1"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1205,6 +1209,132 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F52B52A-CA65-4E1E-A6F8-EBA7D4B9DF4C}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442D7C59-28F7-40A9-A59A-D5E05246463E}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F4C260-0897-4311-A09D-8DE822F32C0D}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E443D-BF54-43E0-9FED-8FB576E381A7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C117621-A5ED-45C5-A4A7-7EAB55A56043}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1245,11 +1375,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E034F6-DDAC-4F6D-866A-6B7BE9BCAB7C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
@@ -1290,7 +1420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A74EA-30B8-42B5-8115-CDC0105F6AFB}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1427,7 +1557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38771DAE-142C-47C0-BA12-2A57C468A560}">
   <dimension ref="A1:H5"/>
   <sheetViews>
@@ -1572,111 +1702,6 @@
       </c>
       <c r="H5" s="5" t="s">
         <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250238ED-D5FB-4CF7-A294-D13F455B9C12}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5">
-        <v>9898989898</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="5">
-        <v>999999999</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1111111111</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="5">
-        <v>999999999</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="5">
-        <v>123456789</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1467904</v>
       </c>
     </row>
   </sheetData>
@@ -1810,6 +1835,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250238ED-D5FB-4CF7-A294-D13F455B9C12}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1111111111</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5">
+        <v>123456789</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1467904</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AC225C7-6666-417E-9F27-F3C5F21E32F7}">
   <dimension ref="A1:G8"/>
@@ -1950,23 +2080,23 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="40" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="40" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1989,32 +2119,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="34" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="34" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="34" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2102,176 +2232,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="35">
         <v>1.8</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36" t="s">
+      <c r="G2" s="35"/>
+      <c r="H2" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="36" t="s">
+      <c r="F7" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="35" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="36" t="s">
+      <c r="F8" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2470,7 +2600,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>63</v>
       </c>
@@ -2490,7 +2620,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>64</v>
       </c>

--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -8,31 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\OfflineWebsiteJBK\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8036B747-18B7-4F1F-A8F5-E50316FDF285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E47A6B-FE1B-4B9F-8F81-C77C39720E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="5" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="headers" sheetId="5" r:id="rId2"/>
     <sheet name="userheader" sheetId="6" r:id="rId3"/>
     <sheet name="usefulheader" sheetId="8" r:id="rId4"/>
-    <sheet name="goLink" sheetId="14" r:id="rId5"/>
-    <sheet name="downloadHeader" sheetId="9" r:id="rId6"/>
-    <sheet name="download" sheetId="15" r:id="rId7"/>
-    <sheet name="useful" sheetId="10" r:id="rId8"/>
-    <sheet name="operator" sheetId="11" r:id="rId9"/>
-    <sheet name="operatorTable" sheetId="16" r:id="rId10"/>
-    <sheet name="dashboard" sheetId="12" r:id="rId11"/>
-    <sheet name="courses" sheetId="20" r:id="rId12"/>
-    <sheet name="moreinfo" sheetId="19" r:id="rId13"/>
-    <sheet name="subcourses" sheetId="18" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId15"/>
-    <sheet name="statelist" sheetId="13" r:id="rId16"/>
-    <sheet name="operatorHeader" sheetId="7" r:id="rId17"/>
-    <sheet name="adduser" sheetId="2" r:id="rId18"/>
-    <sheet name="user" sheetId="3" r:id="rId19"/>
-    <sheet name="register" sheetId="4" r:id="rId20"/>
+    <sheet name="rowUsefulHeader" sheetId="22" r:id="rId5"/>
+    <sheet name="goLink" sheetId="14" r:id="rId6"/>
+    <sheet name="downloadHeader" sheetId="9" r:id="rId7"/>
+    <sheet name="download" sheetId="15" r:id="rId8"/>
+    <sheet name="useful" sheetId="10" r:id="rId9"/>
+    <sheet name="operator" sheetId="11" r:id="rId10"/>
+    <sheet name="operatorTable" sheetId="16" r:id="rId11"/>
+    <sheet name="dashboard" sheetId="12" r:id="rId12"/>
+    <sheet name="courses" sheetId="20" r:id="rId13"/>
+    <sheet name="moreinfo" sheetId="19" r:id="rId14"/>
+    <sheet name="subcourses" sheetId="18" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="21" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="17" r:id="rId17"/>
+    <sheet name="statelist" sheetId="13" r:id="rId18"/>
+    <sheet name="operatorHeader" sheetId="7" r:id="rId19"/>
+    <sheet name="adduser" sheetId="2" r:id="rId20"/>
+    <sheet name="user" sheetId="3" r:id="rId21"/>
+    <sheet name="register" sheetId="4" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="110">
   <si>
     <t>Username</t>
   </si>
@@ -993,6 +995,146 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30072539-36C0-49C1-8A91-9A400B22647C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="29">
+        <v>9552343698</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="29">
+        <v>7066885937</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E4" s="29">
+        <v>8888558802</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="29">
+        <v>8888809416</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="29">
+        <v>8866888662</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29BA4148-4788-4A9C-9CE5-C4DD784F460D}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1133,7 +1275,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB04CFB-4603-48D5-8182-1F215EB0F2C5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1208,7 +1350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F52B52A-CA65-4E1E-A6F8-EBA7D4B9DF4C}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1246,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{442D7C59-28F7-40A9-A59A-D5E05246463E}">
   <dimension ref="A1:A4"/>
   <sheetViews>
@@ -1284,11 +1426,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F4C260-0897-4311-A09D-8DE822F32C0D}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1322,7 +1464,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F8FBEB-4BC5-4B08-A066-9D7AA524A9E5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E443D-BF54-43E0-9FED-8FB576E381A7}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1334,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C117621-A5ED-45C5-A4A7-7EAB55A56043}">
   <dimension ref="A1:A5"/>
   <sheetViews>
@@ -1375,7 +1529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E034F6-DDAC-4F6D-866A-6B7BE9BCAB7C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -1413,295 +1567,6 @@
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A74EA-30B8-42B5-8115-CDC0105F6AFB}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
-    <col min="3" max="4" width="17.88671875" customWidth="1"/>
-    <col min="6" max="7" width="12.77734375" style="4" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6">
-        <v>9898989898</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="5">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="6">
-        <v>999999999</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1111111111</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="6">
-        <v>999999999</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38771DAE-142C-47C0-BA12-2A57C468A560}">
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>9898989898</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="5">
-        <v>999999999</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1111111111</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="5">
-        <v>999999999</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1836,6 +1701,295 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59A74EA-30B8-42B5-8115-CDC0105F6AFB}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" customWidth="1"/>
+    <col min="6" max="7" width="12.77734375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="6">
+        <v>9898989898</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="6">
+        <v>999999999</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1111111111</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6">
+        <v>999999999</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38771DAE-142C-47C0-BA12-2A57C468A560}">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>9898989898</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1111111111</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5">
+        <v>999999999</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{250238ED-D5FB-4CF7-A294-D13F455B9C12}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -2080,7 +2234,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2106,6 +2260,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E26E5B-9439-4EF2-AC40-70C306518C29}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3FBE4C-AD80-42FA-9545-A4BE4AD08E9C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -2153,7 +2333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FE7ED2-521F-45B3-B3D8-B5C23B4F38BE}">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -2211,7 +2391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6137A02F-04BB-408B-83A4-54C3B21DD90B}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2410,7 +2590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE0A1889-83F5-4AD3-99F4-1D024361E3CF}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2503,144 +2683,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30072539-36C0-49C1-8A91-9A400B22647C}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="29">
-        <v>9552343698</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="61.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="29">
-        <v>7066885937</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="71.400000000000006" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="29">
-        <v>8888558802</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E5" s="29">
-        <v>8888809416</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="29">
-        <v>8866888662</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/src/test/resources/Data.xlsx
+++ b/src/test/resources/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\selenium\OfflineWebsiteJBK\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E47A6B-FE1B-4B9F-8F81-C77C39720E44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0AA8C30-389C-4AF2-A625-6671A9FF3AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="9" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,8 @@
     <sheet name="courses" sheetId="20" r:id="rId13"/>
     <sheet name="moreinfo" sheetId="19" r:id="rId14"/>
     <sheet name="subcourses" sheetId="18" r:id="rId15"/>
-    <sheet name="Sheet2" sheetId="21" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="17" r:id="rId17"/>
+    <sheet name="whatsappOnly" sheetId="21" r:id="rId16"/>
+    <sheet name="downCol3" sheetId="17" r:id="rId17"/>
     <sheet name="statelist" sheetId="13" r:id="rId18"/>
     <sheet name="operatorHeader" sheetId="7" r:id="rId19"/>
     <sheet name="adduser" sheetId="2" r:id="rId20"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="111">
   <si>
     <t>Username</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>69.0</t>
+  </si>
+  <si>
+    <t>Prefer way</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1142,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1466,24 +1469,145 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60F8FBEB-4BC5-4B08-A066-9D7AA524A9E5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E443D-BF54-43E0-9FED-8FB576E381A7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="30.109375" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="35">
+        <v>1.8</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="35"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="35"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="35"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2263,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24E26E5B-9439-4EF2-AC40-70C306518C29}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -2396,7 +2520,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
